--- a/data/2014.xlsx
+++ b/data/2014.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev\Desktop\DSPT2025\2-Data Analysis\Proyecto final de módulo\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C810475-4640-4029-BBAE-3B12E2E23827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Provincias" sheetId="1" r:id="rId1"/>
@@ -17,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="162">
   <si>
     <t>Parlamento europeo | Mayo 2014 | Resultados por provincia</t>
-  </si>
-  <si>
-    <t>IZQUIERDA UNIDA, INICIATIVA PER CATALUNYA VERDS, ESQUERRA UNIDA I ALTERNATIVA, ANOVA-IRMANDADE NACIONALISTA, ESPAZO ECOSOCIALISTA GALEGO, BATZARRE-ASAMBLEA DE IZQUIERDAS, FEDERACION LOS VERDES, OPCIÓ VERDA-ELS VERDS, GIRA MADRID-LOS VERDES, CONSTRUYENDO LA IZQUIERDA-ALTERNATIVA SOCIALISTA, EZKERREKO EKIMENA-ETORKIZUNA IRATZARRI: LA IZQUIERDA PLURAL</t>
   </si>
   <si>
     <t>Nombre de Comunidad</t>
@@ -501,15 +504,18 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t xml:space="preserve">IZQUIERDA UNIDA </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,51 +1023,59 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1082,7 +1096,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7"/>
+        <xdr:cNvPr id="2" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1111,9 +1131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1151,7 +1171,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1185,6 +1205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1219,9 +1240,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1394,634 +1416,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:Z4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="3"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="16" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="65.099999999999994" customHeight="1"/>
-    <row r="3" spans="1:94" ht="17.25">
+    <row r="1" spans="1:94" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:94" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:94" s="2" customFormat="1" ht="279" customHeight="1">
+    <row r="4" spans="1:94" s="2" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AN4" s="9"/>
       <c r="AO4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR4" s="9"/>
       <c r="AS4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT4" s="9"/>
       <c r="AU4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AV4" s="9"/>
       <c r="AW4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AZ4" s="9"/>
       <c r="BA4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BD4" s="9"/>
       <c r="BE4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BF4" s="9"/>
       <c r="BG4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BH4" s="9"/>
       <c r="BI4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BJ4" s="9"/>
       <c r="BK4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BL4" s="9"/>
       <c r="BM4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BN4" s="9"/>
       <c r="BO4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BP4" s="9"/>
       <c r="BQ4" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BR4" s="9"/>
       <c r="BS4" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BT4" s="9"/>
       <c r="BU4" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BV4" s="9"/>
       <c r="BW4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BX4" s="9"/>
       <c r="BY4" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BZ4" s="9"/>
       <c r="CA4" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="CB4" s="9"/>
       <c r="CC4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CD4" s="9"/>
       <c r="CE4" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CF4" s="9"/>
       <c r="CG4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CH4" s="9"/>
       <c r="CI4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CJ4" s="9"/>
       <c r="CK4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CL4" s="9"/>
       <c r="CM4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CN4" s="9"/>
       <c r="CO4" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CP4" s="9"/>
     </row>
-    <row r="5" spans="1:94" s="2" customFormat="1" ht="32.25" customHeight="1">
+    <row r="5" spans="1:94" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q5" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BD5" s="9"/>
       <c r="BE5" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BF5" s="9"/>
       <c r="BG5" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BH5" s="9"/>
       <c r="BI5" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BN5" s="9"/>
       <c r="BO5" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BP5" s="9"/>
       <c r="BQ5" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BR5" s="9"/>
       <c r="BS5" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BT5" s="9"/>
       <c r="BU5" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BV5" s="9"/>
       <c r="BW5" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BX5" s="9"/>
       <c r="BY5" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BZ5" s="9"/>
       <c r="CA5" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CB5" s="9"/>
       <c r="CC5" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="CD5" s="9"/>
       <c r="CE5" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CF5" s="9"/>
       <c r="CG5" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="CH5" s="9"/>
       <c r="CI5" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CJ5" s="9"/>
       <c r="CK5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="CL5" s="9"/>
       <c r="CM5" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="CN5" s="9"/>
       <c r="CO5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="CP5" s="9"/>
     </row>
-    <row r="6" spans="1:94" s="2" customFormat="1" ht="30">
+    <row r="6" spans="1:94" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BY6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CC6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CE6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CF6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CG6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CH6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CI6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CJ6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CM6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CN6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="CO6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CP6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>19</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BJ6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BK6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BM6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BN6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BO6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BP6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BQ6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BR6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BS6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BT6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BU6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BV6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BY6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CA6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CB6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CC6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CD6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CE6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CF6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CG6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CH6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CI6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CJ6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CK6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CL6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CM6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CN6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="CO6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="CP6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:94">
-      <c r="A7" t="s">
-        <v>20</v>
       </c>
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>699329</v>
@@ -2297,15 +2321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:94">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>1238492</v>
@@ -2581,15 +2605,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:94">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>802422</v>
@@ -2865,15 +2889,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:94">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>919319</v>
@@ -3149,15 +3173,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:94">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1">
         <v>520668</v>
@@ -3433,15 +3457,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:94">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>664916</v>
@@ -3717,15 +3741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:94">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <v>1652999</v>
@@ -4001,15 +4025,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:94">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>1942155</v>
@@ -4285,15 +4309,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:94">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>226329</v>
@@ -4569,15 +4593,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:94">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3">
         <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>142183</v>
@@ -4853,15 +4877,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:94">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1">
         <v>978638</v>
@@ -5137,15 +5161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:94">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>1068165</v>
@@ -5421,15 +5445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:94">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>1111674</v>
@@ -5705,15 +5729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:94">
+    <row r="20" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3">
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1">
         <v>1103850</v>
@@ -5989,15 +6013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:94">
+    <row r="21" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="1">
         <v>1014829</v>
@@ -6273,15 +6297,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:94">
+    <row r="22" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3">
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>591888</v>
@@ -6557,15 +6581,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:94">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1">
         <v>400007</v>
@@ -6841,15 +6865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:94">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1">
         <v>524962</v>
@@ -7125,15 +7149,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:94">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>211899</v>
@@ -7409,15 +7433,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:94">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
         <v>257723</v>
@@ -7693,15 +7717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:94">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3">
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
         <v>706407</v>
@@ -7977,15 +8001,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:94">
+    <row r="28" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1">
         <v>168825</v>
@@ -8261,15 +8285,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:94">
+    <row r="29" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="3">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="1">
         <v>371248</v>
@@ -8545,15 +8569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:94">
+    <row r="30" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1">
         <v>489752</v>
@@ -8829,15 +8853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:94">
+    <row r="31" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
         <v>168955</v>
@@ -9113,15 +9137,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:94">
+    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3">
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1">
         <v>345548</v>
@@ -9397,15 +9421,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:94">
+    <row r="33" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3">
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1">
         <v>161702</v>
@@ -9681,15 +9705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:94">
+    <row r="34" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="3">
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="1">
         <v>93291</v>
@@ -9965,15 +9989,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:94">
+    <row r="35" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3">
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1">
         <v>532284</v>
@@ -10249,15 +10273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:94">
+    <row r="36" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3">
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1">
         <v>188270</v>
@@ -10533,15 +10557,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:94">
+    <row r="37" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="3">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="1">
         <v>5540925</v>
@@ -10817,15 +10841,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:94">
+    <row r="38" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="3">
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1">
         <v>761632</v>
@@ -11101,15 +11125,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:94">
+    <row r="39" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3">
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="1">
         <v>440915</v>
@@ -11385,15 +11409,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:94">
+    <row r="40" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3">
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1">
         <v>810178</v>
@@ -11669,15 +11693,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:94">
+    <row r="41" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="1">
         <v>693729</v>
@@ -11953,15 +11977,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:94">
+    <row r="42" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="3">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1">
         <v>410275</v>
@@ -12237,15 +12261,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:94">
+    <row r="43" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B43" s="3">
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1">
         <v>1138161</v>
@@ -12521,15 +12545,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:94">
+    <row r="44" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="3">
         <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1">
         <v>346005</v>
@@ -12805,15 +12829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:94">
+    <row r="45" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="3">
         <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1">
         <v>326724</v>
@@ -13089,15 +13113,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:94">
+    <row r="46" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="3">
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="1">
         <v>955050</v>
@@ -13373,15 +13397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:94">
+    <row r="47" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" s="3">
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1">
         <v>6495551</v>
@@ -13657,15 +13681,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:94">
+    <row r="48" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="3">
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="1">
         <v>644477</v>
@@ -13941,15 +13965,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:94">
+    <row r="49" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1">
         <v>321417</v>
@@ -14225,15 +14249,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:94">
+    <row r="50" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3">
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="1">
         <v>713818</v>
@@ -14509,15 +14533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:94">
+    <row r="51" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="3">
         <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1">
         <v>1156447</v>
@@ -14793,15 +14817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:94">
+    <row r="52" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="3">
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1">
         <v>1472049</v>
@@ -15077,15 +15101,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:94">
+    <row r="53" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="3">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1">
         <v>322027</v>
@@ -15361,15 +15385,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:94">
+    <row r="54" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="1">
         <v>1945642</v>
@@ -15645,15 +15669,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:94">
+    <row r="55" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="3">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1">
         <v>601699</v>
@@ -15929,15 +15953,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:94">
+    <row r="56" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="3">
         <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D56" s="1">
         <v>2566474</v>
@@ -16213,15 +16237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:94">
+    <row r="57" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B57" s="3">
         <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="1">
         <v>84180</v>
@@ -16497,15 +16521,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:94">
+    <row r="58" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" s="3">
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1">
         <v>83679</v>
@@ -16781,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:94">
+    <row r="59" spans="1:94" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -16833,13 +16857,13 @@
       <c r="CN59" s="4"/>
       <c r="CP59" s="4"/>
     </row>
-    <row r="60" spans="1:94" s="6" customFormat="1">
+    <row r="60" spans="1:94" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="7">
         <v>47129783</v>
@@ -17117,36 +17141,38 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
     <mergeCell ref="CK4:CL4"/>
     <mergeCell ref="CM4:CN4"/>
     <mergeCell ref="CO4:CP4"/>
@@ -17163,38 +17189,36 @@
     <mergeCell ref="CE4:CF4"/>
     <mergeCell ref="CG4:CH4"/>
     <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/2014.xlsx
+++ b/data/2014.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev\Desktop\DSPT2025\2-Data Analysis\Proyecto final de módulo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dev\Desktop\EuroElection-Trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C810475-4640-4029-BBAE-3B12E2E23827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A017C41A-9BCC-41B5-97AC-233BBD7CA547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19356" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Provincias" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>MOVIMIENTO CORRIENTE ROJA</t>
   </si>
   <si>
-    <t>P.P.</t>
-  </si>
-  <si>
     <t>PSOE</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
   </si>
   <si>
     <t>EPDD</t>
-  </si>
-  <si>
-    <t>C's</t>
   </si>
   <si>
     <t>LPD</t>
@@ -439,19 +433,10 @@
     <t>PIRATAS</t>
   </si>
   <si>
-    <t>F.A.C.</t>
-  </si>
-  <si>
     <t>DISCAPACITADOS Y ENFERMEDADES RARAS</t>
   </si>
   <si>
     <t>RECORTES CERO</t>
-  </si>
-  <si>
-    <t>P.C.P.E.</t>
-  </si>
-  <si>
-    <t>I.Fem</t>
   </si>
   <si>
     <t>FE de las JONS</t>
@@ -469,19 +454,10 @@
     <t>PH</t>
   </si>
   <si>
-    <t>D.N.</t>
-  </si>
-  <si>
     <t>ACNV-BAR-PRAO-R.E.P.O-UNIO</t>
   </si>
   <si>
     <t>PT</t>
-  </si>
-  <si>
-    <t>P-LIB</t>
-  </si>
-  <si>
-    <t>M.S.R.</t>
   </si>
   <si>
     <t>ALTER</t>
@@ -499,13 +475,37 @@
     <t>IPEX-PREX-CREX</t>
   </si>
   <si>
-    <t>M.C.R.</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve">IZQUIERDA UNIDA </t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>PCPE</t>
+  </si>
+  <si>
+    <t>FAC</t>
+  </si>
+  <si>
+    <t>IFem</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>MCR</t>
+  </si>
+  <si>
+    <t>PLIB</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:Z4"/>
+    <sheetView tabSelected="1" topLeftCell="V4" workbookViewId="0">
+      <selection activeCell="BY5" sqref="BY5:BZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9" t="s">
@@ -1597,15 +1597,15 @@
     </row>
     <row r="5" spans="1:94" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q5" s="9" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V5" s="9"/>
       <c r="W5" s="9" t="s">
@@ -1613,23 +1613,23 @@
       </c>
       <c r="X5" s="9"/>
       <c r="Y5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9" t="s">
@@ -1641,19 +1641,19 @@
       </c>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AN5" s="9"/>
       <c r="AO5" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AT5" s="9"/>
       <c r="AU5" s="9" t="s">
@@ -1661,67 +1661,67 @@
       </c>
       <c r="AV5" s="9"/>
       <c r="AW5" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AX5" s="9"/>
       <c r="AY5" s="9" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="BB5" s="9"/>
       <c r="BC5" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BD5" s="9"/>
       <c r="BE5" s="9" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="BF5" s="9"/>
       <c r="BG5" s="9" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="BH5" s="9"/>
       <c r="BI5" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="BJ5" s="9"/>
       <c r="BK5" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="BN5" s="9"/>
       <c r="BO5" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="BP5" s="9"/>
       <c r="BQ5" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="BR5" s="9"/>
       <c r="BS5" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="BT5" s="9"/>
       <c r="BU5" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="BV5" s="9"/>
       <c r="BW5" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="BX5" s="9"/>
       <c r="BY5" s="9" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="BZ5" s="9"/>
       <c r="CA5" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CB5" s="9"/>
       <c r="CC5" s="9" t="s">
@@ -1729,27 +1729,27 @@
       </c>
       <c r="CD5" s="9"/>
       <c r="CE5" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="CF5" s="9"/>
       <c r="CG5" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="CH5" s="9"/>
       <c r="CI5" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="CJ5" s="9"/>
       <c r="CK5" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="CL5" s="9"/>
       <c r="CM5" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="CN5" s="9"/>
       <c r="CO5" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CP5" s="9"/>
     </row>
@@ -16863,7 +16863,7 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D60" s="7">
         <v>47129783</v>
